--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/累计折旧.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/累计折旧.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12.656</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.74422</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01857</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00936</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.68039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>23.58483</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.66508</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.74849</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.42958</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.21091</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.32223</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.94589</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25.40213</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.97678</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.69783</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>17.76804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.88394</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>5.13387</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.55121</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.67275</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.08015</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21.85357</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.8621</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.21073</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.09118999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>384.89338</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>43.79109</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.16925</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.32413</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19.97261</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>59.46863</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.46508</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>7.47371</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15.21991</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8.668810000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>11.79742</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.3018</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>19.23789</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25.14226</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.24667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02275</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.79075</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.00211</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.29941</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.26837</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.36524</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23.70426</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.44657</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.09247</v>
-      </c>
-      <c r="N3" t="n">
-        <v>47.99588</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.45074</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.76976</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>22.6948</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.6697</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00213</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.49624</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.10006</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.52808</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.74606</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.288919999999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.26797</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>33.22898</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11.63599</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.29998</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00095</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>674.51149</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>93.11185999999999</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.51856</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>23.79481</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34.76457</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>96.29658999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.20531</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.1811</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>25.14833</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>12.74821</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>18.90091</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.04625</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26.75752</v>
-      </c>
-      <c r="C4" t="n">
-        <v>38.30947</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.12891</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02358</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.54501</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64.31883999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.73909</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.73234</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.62061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>38.15785</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.3026</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.72869</v>
-      </c>
-      <c r="N4" t="n">
-        <v>69.16834</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22.94895</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.11612</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>31.91976</v>
-      </c>
-      <c r="R4" t="n">
-        <v>14.89813</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>9.32385</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.009180000000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.09769</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.39734</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10.25686</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>16.01473</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>48.27075</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>14.02752</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.24736</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>972.09875</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>135.7712</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.15978</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>31.87806</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>49.73169</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>132.90136</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.12335</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20.57225</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>37.35425</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>15.7996</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>32.44727</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.29885</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
